--- a/Data/complete-madrid-instance/results.xlsx
+++ b/Data/complete-madrid-instance/results.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,16 @@
           <t>solution time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,7 +499,15 @@
         <v>129491</v>
       </c>
       <c r="D2" t="n">
-        <v>2.901000022888184</v>
+        <v>2.782999992370605</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +550,16 @@
           <t>solution time</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,7 +574,15 @@
         <v>79437968</v>
       </c>
       <c r="D2" t="n">
-        <v>144.7300000190735</v>
+        <v>147.8330001831055</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>540740</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +630,16 @@
           <t># of routes</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -604,14 +650,24 @@
       <c r="B2" t="n">
         <v>475</v>
       </c>
-      <c r="C2" t="n">
-        <v>79437968</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No objective value</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>144.4909999370575</v>
+        <v>90.81499981880188</v>
       </c>
       <c r="E2" t="n">
-        <v>475</v>
+        <v>950</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>maxTimeLimit</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2239718</v>
       </c>
     </row>
   </sheetData>

--- a/Data/complete-madrid-instance/results.xlsx
+++ b/Data/complete-madrid-instance/results.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Model1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Model2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Model3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Model32" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Model33" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,10 +497,10 @@
         <v>475</v>
       </c>
       <c r="C2" t="n">
-        <v>129491</v>
+        <v>2218</v>
       </c>
       <c r="D2" t="n">
-        <v>2.782999992370605</v>
+        <v>2.509000062942505</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -571,14 +572,14 @@
         <v>475</v>
       </c>
       <c r="C2" t="n">
-        <v>79437968</v>
+        <v>2168</v>
       </c>
       <c r="D2" t="n">
-        <v>147.8330001831055</v>
+        <v>101.3809998035431</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -650,24 +651,105 @@
       <c r="B2" t="n">
         <v>475</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No objective value</t>
-        </is>
+      <c r="C2" t="n">
+        <v>2168</v>
       </c>
       <c r="D2" t="n">
-        <v>90.81499981880188</v>
+        <v>275.7370002269745</v>
       </c>
       <c r="E2" t="n">
-        <v>950</v>
+        <v>475</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>maxTimeLimit</t>
+          <t>optimal</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2239718</v>
+        <v>541215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t># of trains</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Objective value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>solution time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t># of routes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Termination condition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>number pf binary variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Complete schedule</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>475</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>295.7530000209808</v>
+      </c>
+      <c r="E2" t="n">
+        <v>475</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>541215</v>
       </c>
     </row>
   </sheetData>
